--- a/inputfiles/PPD_CHEMSUMM.xlsx
+++ b/inputfiles/PPD_CHEMSUMM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Vancouver_BC_Modeling\inputfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SubsurfaceSinks\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444D3FED-63CA-4C9C-BA5A-BB5BE9F9B5E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B30FD6A-AD89-4F38-A7F0-DB913F371EE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={6F7FD141-D115-4CA7-A1BB-1CF8844A9756}</author>
+    <author>tc={F6221951-BCAE-4089-AD58-D4EE39096D13}</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{6F7FD141-D115-4CA7-A1BB-1CF8844A9756}">
@@ -44,12 +45,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{9B49C044-6B1F-4A9A-879C-80AE80D46C09}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Zhao, Y. H., Abraham, M. H. and Zissimos, A. M.: Determination of McGowan Volumes for Ions and Correlation with van der Waals Volumes, J. Chem. Inf. Comput. Sci., 43(6), 1848–1854, doi:10.1021/ci0341114, 2003.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Compound</t>
   </si>
@@ -72,24 +90,6 @@
     <t>SoilHL</t>
   </si>
   <si>
-    <t>UairEmiss</t>
-  </si>
-  <si>
-    <t>WatEmiss</t>
-  </si>
-  <si>
-    <t>WatInflow</t>
-  </si>
-  <si>
-    <t>WatConc</t>
-  </si>
-  <si>
-    <t>LAirConc</t>
-  </si>
-  <si>
-    <t>SoilConc</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -108,9 +108,6 @@
     <t>SMILES</t>
   </si>
   <si>
-    <t>LairInflow</t>
-  </si>
-  <si>
     <t>pKa</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>LogKow</t>
   </si>
   <si>
-    <t>bc_us</t>
-  </si>
-  <si>
     <t>LogKaw</t>
   </si>
   <si>
@@ -138,16 +132,49 @@
     <t>CAS</t>
   </si>
   <si>
-    <t>6PPD</t>
-  </si>
-  <si>
-    <t>793-24-8</t>
-  </si>
-  <si>
     <t>CC(C)CC(C)NC1=CC(=O)C(=CC1=O)NC2=CC=CC=C2</t>
   </si>
   <si>
     <t>6PPDQ</t>
+  </si>
+  <si>
+    <t>Bromide</t>
+  </si>
+  <si>
+    <t>VegHL</t>
+  </si>
+  <si>
+    <t>Benzotriazole</t>
+  </si>
+  <si>
+    <t>95-14-7</t>
+  </si>
+  <si>
+    <t>Rhodamine</t>
+  </si>
+  <si>
+    <t>CCN(CC)C1=CC2=C(C=C1)C(=C3C=CC(=[N+](CC)CC)C=C3O2)C4=C(C=C(C=C4)C(=O)[O-])C(=O)[O-].[Na+].[Na+].[Cl-]</t>
+  </si>
+  <si>
+    <t>37299-86-8</t>
+  </si>
+  <si>
+    <t>BPA</t>
+  </si>
+  <si>
+    <t>Fipronil</t>
+  </si>
+  <si>
+    <t>CC(C)(C1=CC=C(C=C1)O)C2=CC=C(C=C2)O</t>
+  </si>
+  <si>
+    <t>C1=C(C=C(C(=C1Cl)N2C(=C(C(=N2)C#N)S(=O)C(F)(F)F)N)Cl)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>80-05-7</t>
+  </si>
+  <si>
+    <t>120068-37-3</t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1055,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,15 +1070,16 @@
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1074,25 +1102,25 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O1" t="s">
         <v>7</v>
@@ -1101,58 +1129,37 @@
         <v>8</v>
       </c>
       <c r="Q1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="R1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>268.39999999999998</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="C2" s="2">
-        <f>(0.000000074*(2.6*B2)^0.5*(273.15+17)/(1.0791*(Z2*100)^0.6))*(3600/100^2)</f>
-        <v>7.1156077295905578E-6</v>
+        <f>(0.000000074*(2.6*B2)^0.5*(273.15+17)/(1.0791*(S2*100)^0.6))*(3600/100^2)</f>
+        <v>7.3648366095385989E-6</v>
       </c>
       <c r="D2" s="4">
         <v>1.2887999999999998E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>2.4E-10</v>
+        <v>1.51E-10</v>
       </c>
       <c r="F2" s="1">
         <v>900</v>
@@ -1161,106 +1168,84 @@
         <v>8100</v>
       </c>
       <c r="H2" s="1">
-        <v>6.37</v>
+        <f>0.1*F2</f>
+        <v>90</v>
       </c>
       <c r="I2" s="1">
-        <v>-4.5</v>
+        <v>4.12</v>
       </c>
       <c r="J2" s="1">
-        <v>4.3630000000000004</v>
+        <v>-8.2799999999999994</v>
       </c>
       <c r="K2" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="L2" s="1">
         <v>999</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1">
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10.406000000000001</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.9723618090452261E-13</v>
+        <v>0.12</v>
       </c>
       <c r="R2" s="1">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S2" s="1">
-        <v>7.3099999999999999E-4</v>
-      </c>
-      <c r="T2" s="1">
-        <v>2.616143551903963E-10</v>
-      </c>
-      <c r="U2" s="1">
-        <v>2.616143551903963E-10</v>
-      </c>
-      <c r="V2" s="1">
-        <v>9.8840000000000003</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1.49</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>2.3692000000000002</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2.4436</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>298.39999999999998</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>79.903999999999996</v>
       </c>
       <c r="C3" s="2">
-        <f>(0.000000074*(2.6*B3)^0.5*(273.15+17)/(1.0791*(Z3*100)^0.6))*(3600/100^2)</f>
-        <v>7.3648366095385989E-6</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.2887999999999998E-2</v>
+        <f>(0.000000074*(2.6*B3)^0.5*(273.15+17)/(1.0791*(S3*100)^0.6))*(3600/100^2)</f>
+        <v>1.3241059797519805E-5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1E-99</v>
       </c>
       <c r="E3" s="2">
-        <v>1.51E-10</v>
-      </c>
-      <c r="F3" s="1">
-        <v>900</v>
-      </c>
-      <c r="G3" s="1">
-        <v>8100</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4.12</v>
+        <v>1E-99</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H3" s="2">
+        <f>0.1*F3</f>
+        <v>100000000</v>
       </c>
       <c r="I3" s="1">
-        <v>-8.2799999999999994</v>
+        <v>-999</v>
       </c>
       <c r="J3" s="1">
-        <v>3.14</v>
+        <v>-999</v>
       </c>
       <c r="K3" s="1">
+        <v>-999</v>
+      </c>
+      <c r="L3" s="1">
         <v>999</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1">
         <v>0</v>
       </c>
@@ -1277,173 +1262,324 @@
         <v>0</v>
       </c>
       <c r="S3" s="1">
+        <f>30.66/100</f>
+        <v>0.30659999999999998</v>
+      </c>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>119.127</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.6819708262146042E-6</v>
+      </c>
+      <c r="D4">
+        <v>1.2887999999999998E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>360</v>
+      </c>
+      <c r="G4" s="1">
+        <v>720</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.2300000000000002</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-7.1020259999999986</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.8512583487190752</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5.6689999999999996</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>566.99</v>
+      </c>
+      <c r="C5">
+        <v>7.8946170041811414E-6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.2887999999999998E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.9712889999999998E-10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1440</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2880</v>
+      </c>
+      <c r="H5" s="1">
+        <v>144</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-1.33</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-33.538476999866809</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.3643633546157306</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>16.437000000000001</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="Q5" s="1">
         <v>0</v>
       </c>
-      <c r="T3" s="1">
+      <c r="R5" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3.7159</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>228.29</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:C7" si="0">(0.000000074*(2.6*B6)^0.5*(273.15+17)/(1.0791*(S6*100)^0.6))*(3600/100^2)</f>
+        <v>7.5773219662992836E-6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.2887999999999998E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.0577699999999998E-11</v>
+      </c>
+      <c r="F6" s="1">
+        <v>900</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ref="H6:H7" si="1">0.1*F6</f>
+        <v>90</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="J6" s="1">
+        <f>LOG(0.000000125/(273.15*8.314))</f>
+        <v>-10.25930121201274</v>
+      </c>
+      <c r="K6" s="1">
+        <f>LOG(1340)</f>
+        <v>3.1271047983648077</v>
+      </c>
+      <c r="L6" s="1">
+        <v>999</v>
+      </c>
+      <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="U3" s="1">
+      <c r="O6">
+        <v>9.6029999999999998</v>
+      </c>
+      <c r="P6">
+        <v>1.56</v>
+      </c>
+      <c r="Q6">
+        <v>0.99</v>
+      </c>
+      <c r="R6">
+        <v>0.91</v>
+      </c>
+      <c r="S6">
+        <v>1.8643000000000001</v>
+      </c>
+      <c r="T6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1">
+        <v>437.1</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>9.3572036100938395E-6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.2887999999999998E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9.6091899999999999E-11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4320</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8640</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>432</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="J7" s="1">
+        <f>LOG(0.00000000916/(273.15*8.314))</f>
+        <v>-11.394315751352947</v>
+      </c>
+      <c r="K7" s="1">
+        <f>LOG(5230)</f>
+        <v>3.7185016888672742</v>
+      </c>
+      <c r="L7" s="1">
+        <v>999</v>
+      </c>
+      <c r="N7" s="1">
         <v>0</v>
       </c>
-      <c r="V3" s="1">
-        <v>10.406000000000001</v>
-      </c>
-      <c r="W3" s="1">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>1.72</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>2.4436</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H9" s="3"/>
+      <c r="O7">
+        <v>10.065</v>
+      </c>
+      <c r="P7">
+        <v>2.81</v>
+      </c>
+      <c r="Q7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R7">
+        <v>1.54</v>
+      </c>
+      <c r="S7">
+        <v>2.2536</v>
+      </c>
+      <c r="T7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H10" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H11" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H12" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H13" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H14" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H15" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H16" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H17" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H19" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H21" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="J21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputfiles/PPD_CHEMSUMM.xlsx
+++ b/inputfiles/PPD_CHEMSUMM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SubsurfaceSinks\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B30FD6A-AD89-4F38-A7F0-DB913F371EE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7FA657-D448-49C3-9915-D69B98BEFD24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={6F7FD141-D115-4CA7-A1BB-1CF8844A9756}</author>
+    <author>Rodgers, Timothy</author>
     <author>tc={F6221951-BCAE-4089-AD58-D4EE39096D13}</author>
   </authors>
   <commentList>
@@ -45,7 +46,35 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{9B49C044-6B1F-4A9A-879C-80AE80D46C09}">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{97609B2A-49D2-4B28-8A73-88E71C8C7C5B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rodgers, Timothy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+6PPD-Q 
+Di et al (2022) 10.1016/j.envint.2022.107374
+Average of 14.8d = 355.2 hrs
+Min = 12.8d, max - 16.3d
+From Hikki et al. (2021) t1/2 of 33h for 6PPD-quinone</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{9B49C044-6B1F-4A9A-879C-80AE80D46C09}">
       <text>
         <r>
           <rPr>
@@ -184,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +357,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1058,7 +1100,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
